--- a/tests/bad_frameworks/bad_1.xlsx
+++ b/tests/bad_frameworks/bad_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\tests\bad_frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C37157-4BA6-4DBD-A6EE-217AEF5E66E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B3BA18-F972-467F-A276-6FF50B496A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -769,6 +769,12 @@
   </si>
   <si>
     <t>inf,rec</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>New</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,10 +1332,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -1399,6 +1405,20 @@
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
